--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_smi\OneDrive\Documents\TemplatesForBulkCITests\500 CI's (No Duplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlm97\Documents\oneworkflow-automation\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD3A4934EECE07DE3A30AC543493327F250C57B5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4F8A8406-C7C2-4103-ABE8-5FD2C652368C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CACCC-CCD5-4841-BEB4-EDD5C21FF079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1044" windowWidth="17280" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIList" sheetId="1" r:id="rId1"/>
@@ -640,9 +640,6 @@
     <t>NO.DUMMY.RANDOM.UNKNOWN</t>
   </si>
   <si>
-    <t>NO.MONITOR</t>
-  </si>
-  <si>
     <t>NO_99999_ID_MISSEDCI</t>
   </si>
   <si>
@@ -1501,9 +1498,6 @@
     <t>TESTAS</t>
   </si>
   <si>
-    <t>TESTAPP</t>
-  </si>
-  <si>
     <t>DK AWS DevToolsMaster</t>
   </si>
   <si>
@@ -1526,6 +1520,12 @@
   </si>
   <si>
     <t>EE_eNodeB_200595</t>
+  </si>
+  <si>
+    <t>DK-AAR01R</t>
+  </si>
+  <si>
+    <t>noalf01r-dc.adn.telia.se</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1880,8 @@
   <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A501"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
@@ -2921,1477 +2921,1477 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlm97\Documents\oneworkflow-automation\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmay\Downloads\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CACCC-CCD5-4841-BEB4-EDD5C21FF079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B25A9E-8FF3-4741-985A-C9D882D704CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1044" windowWidth="17280" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="792" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIList" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>SE_99999_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>SE OSS RC</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>SE_AAA_AAA99SE</t>
   </si>
   <si>
-    <t>SE_AAA_TestMartinx</t>
-  </si>
-  <si>
     <t>SE_ActixOne</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>SE_AFG_AFG02SE</t>
   </si>
   <si>
-    <t>SE_AFG_AFG89FI</t>
-  </si>
-  <si>
     <t>SE_AFG_AFG98SE</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>SE_ALE_m-hyllie-ale1</t>
   </si>
   <si>
-    <t>SE_ALE_m-hyllie-ale2</t>
-  </si>
-  <si>
     <t>SE_ALE_test-ale</t>
   </si>
   <si>
@@ -169,21 +157,12 @@
     <t>SE_AP_akersberga-enebacken-ap9</t>
   </si>
   <si>
-    <t>SE_AP_akersberga-preem-ap</t>
-  </si>
-  <si>
     <t>SE_AP_akersberga-preem-ap1</t>
   </si>
   <si>
-    <t>SE_AP_alem-preem-ap</t>
-  </si>
-  <si>
     <t>SE_AP_alem-preem-ap1</t>
   </si>
   <si>
-    <t>SE_AP_alingsas-preem-ap</t>
-  </si>
-  <si>
     <t>SE_AP_alingsas-preem-ap1</t>
   </si>
   <si>
@@ -340,15 +319,6 @@
     <t>EE_AIR2_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>EE_AIR3_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_AIR4_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_Atoll</t>
-  </si>
-  <si>
     <t>EE_BSC_BSC5</t>
   </si>
   <si>
@@ -370,15 +340,6 @@
     <t>EE_CH_SW02_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>EE_CH_SW07_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_CH_SW08_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_CMG_ee-cmg01</t>
-  </si>
-  <si>
     <t>EE_CMG_ee-cmg02</t>
   </si>
   <si>
@@ -640,6 +601,9 @@
     <t>NO.DUMMY.RANDOM.UNKNOWN</t>
   </si>
   <si>
+    <t>NO.MONITOR</t>
+  </si>
+  <si>
     <t>NO_99999_ID_MISSEDCI</t>
   </si>
   <si>
@@ -652,9 +616,6 @@
     <t>NO_AAD064_G9-1_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>NO_AAD080_G9-1_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>NO_AC_AC-AKH902-350-1-201</t>
   </si>
   <si>
@@ -1189,12 +1150,6 @@
     <t>LT_2F198011_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>LT_31CA_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_57FA_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>lt_99999_ID_MISSEDCI</t>
   </si>
   <si>
@@ -1498,6 +1453,9 @@
     <t>TESTAS</t>
   </si>
   <si>
+    <t>TESTAPP</t>
+  </si>
+  <si>
     <t>DK AWS DevToolsMaster</t>
   </si>
   <si>
@@ -1522,23 +1480,71 @@
     <t>EE_eNodeB_200595</t>
   </si>
   <si>
-    <t>DK-AAR01R</t>
-  </si>
-  <si>
-    <t>noalf01r-dc.adn.telia.se</t>
+    <t>selanne</t>
+  </si>
+  <si>
+    <t>SELYCAL01S-FLX</t>
+  </si>
+  <si>
+    <t>Selleri ACC</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP03</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP04</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP05</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP06</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP07</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP08</t>
+  </si>
+  <si>
+    <t>SEALIME01S-FLX</t>
+  </si>
+  <si>
+    <t>SEMAL11S</t>
+  </si>
+  <si>
+    <t>SEMALIS06S</t>
+  </si>
+  <si>
+    <t>semal02s-bu-027.adn.telia.se-&gt;dns-log4-sn95</t>
+  </si>
+  <si>
+    <t>READPRD</t>
+  </si>
+  <si>
+    <t>tealeaf</t>
+  </si>
+  <si>
+    <t>finbocluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1561,8 +1567,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,2522 +1887,2523 @@
   <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmay\Downloads\Test Attachments\500 CI's (No Duplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\oneworkflow-automation\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B25A9E-8FF3-4741-985A-C9D882D704CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECA2101-1B11-4D97-8434-4D7DADEE7445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="792" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CIList" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CIList!$A$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -601,9 +609,6 @@
     <t>NO.DUMMY.RANDOM.UNKNOWN</t>
   </si>
   <si>
-    <t>NO.MONITOR</t>
-  </si>
-  <si>
     <t>NO_99999_ID_MISSEDCI</t>
   </si>
   <si>
@@ -1453,9 +1458,6 @@
     <t>TESTAS</t>
   </si>
   <si>
-    <t>TESTAPP</t>
-  </si>
-  <si>
     <t>DK AWS DevToolsMaster</t>
   </si>
   <si>
@@ -1483,9 +1485,6 @@
     <t>selanne</t>
   </si>
   <si>
-    <t>SELYCAL01S-FLX</t>
-  </si>
-  <si>
     <t>Selleri ACC</t>
   </si>
   <si>
@@ -1510,28 +1509,37 @@
     <t>SEALIME01S-FLX</t>
   </si>
   <si>
-    <t>SEMAL11S</t>
-  </si>
-  <si>
-    <t>SEMALIS06S</t>
-  </si>
-  <si>
     <t>semal02s-bu-027.adn.telia.se-&gt;dns-log4-sn95</t>
   </si>
   <si>
     <t>READPRD</t>
   </si>
   <si>
-    <t>tealeaf</t>
-  </si>
-  <si>
     <t>finbocluster</t>
+  </si>
+  <si>
+    <t>Pengerkatu 2, Joensuu, Finland</t>
+  </si>
+  <si>
+    <t>Pantteri</t>
+  </si>
+  <si>
+    <t>Pankration</t>
+  </si>
+  <si>
+    <t>pan_storage</t>
+  </si>
+  <si>
+    <t>Pan Nordic Email PNE</t>
+  </si>
+  <si>
+    <t>Kinna, Göteborg, Sweden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1883,12 +1891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1916,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1948,7 +1956,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1968,7 +1976,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2137,7 +2145,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>496</v>
       </c>
     </row>
@@ -2148,7 +2156,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -2158,7 +2166,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2423,17 +2431,17 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -2473,17 +2481,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -2873,7 +2881,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
@@ -2928,1481 +2936,1481 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmay\Downloads\Test Attachments\500 CI's (No Duplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B25A9E-8FF3-4741-985A-C9D882D704CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29E106-F8A6-470C-886E-8E7C451783AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="792" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIList" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,6 @@
     <t>NO.DUMMY.RANDOM.UNKNOWN</t>
   </si>
   <si>
-    <t>NO.MONITOR</t>
-  </si>
-  <si>
     <t>NO_99999_ID_MISSEDCI</t>
   </si>
   <si>
@@ -1453,9 +1450,6 @@
     <t>TESTAS</t>
   </si>
   <si>
-    <t>TESTAPP</t>
-  </si>
-  <si>
     <t>DK AWS DevToolsMaster</t>
   </si>
   <si>
@@ -1483,9 +1477,6 @@
     <t>selanne</t>
   </si>
   <si>
-    <t>SELYCAL01S-FLX</t>
-  </si>
-  <si>
     <t>Selleri ACC</t>
   </si>
   <si>
@@ -1510,22 +1501,31 @@
     <t>SEALIME01S-FLX</t>
   </si>
   <si>
-    <t>SEMAL11S</t>
-  </si>
-  <si>
-    <t>SEMALIS06S</t>
-  </si>
-  <si>
     <t>semal02s-bu-027.adn.telia.se-&gt;dns-log4-sn95</t>
   </si>
   <si>
     <t>READPRD</t>
   </si>
   <si>
-    <t>tealeaf</t>
-  </si>
-  <si>
     <t>finbocluster</t>
+  </si>
+  <si>
+    <t>SE_AP_are-holiday-club-ap64</t>
+  </si>
+  <si>
+    <t>SE_AP_are-holiday-club-ap65</t>
+  </si>
+  <si>
+    <t>SE_AP_are-holiday-club-ap62</t>
+  </si>
+  <si>
+    <t>NO_AHUB_hbhros1102</t>
+  </si>
+  <si>
+    <t>SE_AP_are-holiday-club-ap69</t>
+  </si>
+  <si>
+    <t>SE_AAA_CoreTest05</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2423,17 +2423,17 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -2473,17 +2473,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
@@ -2928,1477 +2928,1477 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>497</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation-new\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C29E106-F8A6-470C-886E-8E7C451783AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86E694-9D16-4362-8D04-489D4F6E258F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1474,9 +1474,6 @@
     <t>EE_eNodeB_200595</t>
   </si>
   <si>
-    <t>selanne</t>
-  </si>
-  <si>
     <t>Selleri ACC</t>
   </si>
   <si>
@@ -1526,6 +1523,9 @@
   </si>
   <si>
     <t>SE_AAA_CoreTest05</t>
+  </si>
+  <si>
+    <t>EE_CNDB_kjjtiams011</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:A501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1948,7 +1948,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2423,17 +2423,17 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -2473,17 +2473,17 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -2928,7 +2928,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -3853,12 +3853,12 @@
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
@@ -4368,7 +4368,7 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
+++ b/src/test/resources/Test Attachments/500 CI's (No Duplicates)/XLSX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneworkflow-automation-new\src\test\resources\Test Attachments\500 CI's (No Duplicates)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86E694-9D16-4362-8D04-489D4F6E258F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F8F6C-7D6E-4795-9980-710D2B8C304B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,29 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="494">
   <si>
     <t>CI Name</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SE OSS RC</t>
-  </si>
-  <si>
-    <t>SE_AAA_AAA01SE</t>
-  </si>
-  <si>
-    <t>SE_AAA_AAA02SE</t>
-  </si>
-  <si>
-    <t>SE_AAA_AAA03SE</t>
-  </si>
-  <si>
-    <t>SE_AAA_AAA04SE</t>
-  </si>
-  <si>
     <t>SE_AAA_AAA98SE</t>
   </si>
   <si>
@@ -55,249 +37,12 @@
     <t>SE_ActixOne</t>
   </si>
   <si>
-    <t>SE_AFG_AFG01SE</t>
-  </si>
-  <si>
-    <t>SE_AFG_AFG02SE</t>
-  </si>
-  <si>
-    <t>SE_AFG_AFG98SE</t>
-  </si>
-  <si>
-    <t>SE_AFG_AFG99SE</t>
-  </si>
-  <si>
-    <t>SE_AFG_REFAFG</t>
-  </si>
-  <si>
-    <t>SE_ALE_hogalid-ale2</t>
-  </si>
-  <si>
-    <t>SE_ALE_m-hyllie-ale1</t>
-  </si>
-  <si>
     <t>SE_ALE_test-ale</t>
   </si>
   <si>
-    <t>SE_ALE_vrr-ale1</t>
-  </si>
-  <si>
-    <t>SE_AP_1246521-ap</t>
-  </si>
-  <si>
-    <t>SE_AP_1247809-ap</t>
-  </si>
-  <si>
-    <t>SE_AP_1255052-ap</t>
-  </si>
-  <si>
-    <t>SE_AP_1267993-ap</t>
-  </si>
-  <si>
     <t>SE_AP_8028420-ap</t>
   </si>
   <si>
-    <t>SE_AP_ahus-cigarrkungenshus-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_ahus-cigarrkungenshus-ap2</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap10</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap11</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap12</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap13</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap14</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap15</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap16</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap17</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap18</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap2</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap3</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap4</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap5</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap6</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap7</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap8</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-enebacken-ap9</t>
-  </si>
-  <si>
-    <t>SE_AP_akersberga-preem-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alem-preem-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alingsas-preem-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_almhult-jarnvagsstation-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap10</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap2</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap3</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap4</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap5</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap6</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap7</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap8</t>
-  </si>
-  <si>
-    <t>SE_AP_alvesta-radmannen-ap9</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap1</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap10</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap11</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap12</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap13</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap14</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap15</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap16</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap17</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap18</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap19</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap2</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap20</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap21</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap22</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap23</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap24</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap25</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap26</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap27</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap28</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap29</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap3</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap30</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap31</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap32</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap33</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap4</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap5</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap6</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap7</t>
-  </si>
-  <si>
-    <t>SE_AP_alvkarleby-hot-dragonsgate-ap8</t>
-  </si>
-  <si>
-    <t>EE_99999_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>EE_AAA_AAA01EE</t>
   </si>
   <si>
@@ -310,1098 +55,24 @@
     <t>EE_AFG_AFG01EE</t>
   </si>
   <si>
-    <t>EE_AFG_AFG02EE</t>
-  </si>
-  <si>
     <t>EE_AIR1_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>EE_AIR2_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_BSC_BSC5</t>
-  </si>
-  <si>
-    <t>EE_BSC_EE_DEF_BSC</t>
-  </si>
-  <si>
-    <t>EE_BSC_KRT2B</t>
-  </si>
-  <si>
-    <t>EE_BSC_PET1B</t>
-  </si>
-  <si>
-    <t>EE_CDDS</t>
-  </si>
-  <si>
-    <t>EE_CEM</t>
-  </si>
-  <si>
-    <t>EE_CH_SW02_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_CMG_ee-cmg02</t>
-  </si>
-  <si>
-    <t>EE_CMG_ee-cmg03</t>
-  </si>
-  <si>
-    <t>EE_CMG_ee-cmg04</t>
-  </si>
-  <si>
-    <t>EE_CPL</t>
-  </si>
-  <si>
-    <t>EE_CRS02_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>EE_CSCF_CSCF01EE</t>
-  </si>
-  <si>
-    <t>EE_CSCF_CSCF02EE</t>
-  </si>
-  <si>
-    <t>EE_DDN_krt-vr01</t>
-  </si>
-  <si>
-    <t>EE_DDN_krt-vr02</t>
-  </si>
-  <si>
-    <t>EE_DDN_pet-vr01</t>
-  </si>
-  <si>
-    <t>EE_DDN_pet-vr02</t>
-  </si>
-  <si>
-    <t>EE_DSC_DSC01EE</t>
-  </si>
-  <si>
-    <t>EE_DSC_DSC02EE</t>
-  </si>
-  <si>
-    <t>EE_Eniq</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200001</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200002</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200004</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200007</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200010</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200011</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200012</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200014</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200015</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200017</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200018</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200019</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200020</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200021</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200022</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200023</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200024</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200025</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200026</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200027</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200029</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200030</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200031</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200032</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200033</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200034</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200035</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200036</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200037</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200038</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200039</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200040</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200041</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200042</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200045</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200046</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200047</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200048</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200049</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200050</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200051</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200052</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200053</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200054</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200055</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200056</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200057</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200058</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200059</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200060</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200061</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200062</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200063</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200064</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200065</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200066</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200067</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200068</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200069</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200070</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200071</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200072</t>
-  </si>
-  <si>
-    <t>EE_eNodeB_200073</t>
-  </si>
-  <si>
-    <t>NO DNS External</t>
-  </si>
-  <si>
-    <t>NO DNS Internal</t>
-  </si>
-  <si>
-    <t>NO DNS Mobile Gi</t>
-  </si>
-  <si>
-    <t>NO DNS Mobile Gn</t>
-  </si>
-  <si>
-    <t>NO.DECOM.2017Q4</t>
-  </si>
-  <si>
-    <t>NO.DUMMY</t>
-  </si>
-  <si>
-    <t>NO.DUMMY.INFRASTRUCTURE</t>
-  </si>
-  <si>
-    <t>NO.DUMMY.MANAGEMENT</t>
-  </si>
-  <si>
-    <t>NO.DUMMY.OLD.TELE2.DECOM</t>
-  </si>
-  <si>
-    <t>NO.DUMMY.RANDOM.UNKNOWN</t>
-  </si>
-  <si>
     <t>NO_99999_ID_MISSEDCI</t>
   </si>
   <si>
     <t>NO_AAA_AAA01NO</t>
   </si>
   <si>
-    <t>NO_AAA_AAA02NO</t>
-  </si>
-  <si>
     <t>NO_AAD064_G9-1_ID_MISSEDCI</t>
   </si>
   <si>
-    <t>NO_AC_AC-AKH902-350-1-201</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-1-401</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-1-402</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-1-403</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-1-404</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-1-405</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-201</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-401</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-402</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-403</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-404</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-350-2-405</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-3702CB05_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-AKH902-3702CB06_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-BSK300</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HDM200</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701/2CB04</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701/2CB05</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701/2CB06</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701CB02</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3701CB14_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702/3CB09</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702/3CB10</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702/3CB11</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702/3CB12</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702CB01</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3702CB14</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3703_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3703CB13</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK014-3710/2CB03</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HLK017-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-HRD400</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-MOR222</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB05_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3701CB06_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB05_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL800-3702CB06_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3701CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3701CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3701CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3701CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3702_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3702CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3702CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3702CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-OSL900-3702CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-ROG100-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3701CB05_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702CB01_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702CB02_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702CB03_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702CB04_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-STR300-3702CB05_1</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-TRM200</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-VAD010</t>
-  </si>
-  <si>
-    <t>NO_AC_AC-VSF035-3701_1</t>
-  </si>
-  <si>
-    <t>NO_ACC_ACCC-AKH902-KORTLESE</t>
-  </si>
-  <si>
-    <t>NO_ACC_ACCC-OSL800-KORTLESE</t>
-  </si>
-  <si>
-    <t>NO_ACC_ACCC-OSL900-KORTLESE</t>
-  </si>
-  <si>
-    <t>NO_ACC_ACCC-ROG100-KORTLESE</t>
-  </si>
-  <si>
-    <t>NO_ACC_ACCC-STR300-KORTLESE</t>
-  </si>
-  <si>
-    <t>FI DNS ENUM</t>
-  </si>
-  <si>
-    <t>FI DNS Gi</t>
-  </si>
-  <si>
-    <t>FI DNS Gn</t>
-  </si>
-  <si>
-    <t>FI_99999_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>FI_AAA_AAA01FI</t>
   </si>
   <si>
-    <t>FI_AAA_AAA02FI</t>
-  </si>
-  <si>
-    <t>FI_ActixOne</t>
-  </si>
-  <si>
-    <t>FI_AFG_AFG02FI</t>
-  </si>
-  <si>
-    <t>FI_AS_emk10-3krs-c2960-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_emk8-3krs-c3560-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_emk8-5krs-c2950-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbe01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbe02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbe03</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbe04</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbr01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswbr02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswfe01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswfe02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswfe03</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswfe04</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswstp01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkiswstp02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak02-c2960-sw-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak02-c2960-sw-2</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak03-c2970-sw-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-c2960-z1-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-c2960-z1-2</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-c3750-mmsc</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15c3750mmscz1T</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-c4506-z1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-c4506-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak15-rno-sw-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak16-c4506-z1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak16-c4506-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-ak25-c2970-z1</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-mmsc-z1-3750</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-mmsc-z1-3750-new</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswbe01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswbe02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswbe03</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswbe04</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswfe01</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswfe02</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswfe03</t>
-  </si>
-  <si>
-    <t>FI_AS_hkpswfe04</t>
-  </si>
-  <si>
-    <t>FI_AS_hkp-yk25-c3750-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_hml-123-c2611</t>
-  </si>
-  <si>
-    <t>FI_AS_hml-58-c2970-1</t>
-  </si>
-  <si>
-    <t>FI_AS_hml-58-c2970-2</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-124-c2960-1</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-138-c1720</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-138-c2960-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-143-c1720</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-143-c2960-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-2286-c1720</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-2286-c2960-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_jkl-afg01fi-cps</t>
-  </si>
-  <si>
-    <t>FI_AS_kvl-41-c2611</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-cxl-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-cxl-2</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-cxl-3</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-cxl-4</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-cxl-5</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-214-rno-sw-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-230-c3560-tswo-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-230-c3560-tswo-2</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-230-c4506-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-236-c2611-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-236-c4506-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-329-c3560-tswo-1</t>
-  </si>
-  <si>
-    <t>FI_AS_lht-329-c3560-tswo-2</t>
-  </si>
-  <si>
-    <t>FI_AS_olu-333-cxl-1</t>
-  </si>
-  <si>
-    <t>FI_AS_olu-333-cxl-2</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-1krs-c3560-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-2krs-c2960-1</t>
-  </si>
-  <si>
-    <t>FI_AS_stug00</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testb-c3560-z3-2</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c2960-1</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c2960-2</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c2960-3</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c2960-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c3560</t>
-  </si>
-  <si>
-    <t>FI_AS_stu-testbed-c3560-z3</t>
-  </si>
-  <si>
-    <t>FI_AS_tku-545-c2960-1</t>
-  </si>
-  <si>
-    <t>FI_AS_tku-545-rno-sw-1</t>
-  </si>
-  <si>
-    <t>FI_AS_tms-c2621-1-mvnet</t>
-  </si>
-  <si>
-    <t>FI_AS_tre-103-c2960-1</t>
-  </si>
-  <si>
-    <t>FI_AS_tre-103-c3560-z1</t>
-  </si>
-  <si>
-    <t>FI_AS_tre-114-c2960-z3-1</t>
-  </si>
-  <si>
-    <t>FI_AS_tre-114-c2960-z3-2</t>
-  </si>
-  <si>
-    <t>LT DNS SIP</t>
-  </si>
-  <si>
-    <t>LT_023A_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2C964012_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2C975011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F180011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F196011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>LT_2F198011_ID_MISSEDCI</t>
-  </si>
-  <si>
-    <t>lt_99999_ID_MISSEDCI</t>
-  </si>
-  <si>
     <t>LT_AC_AC-KONDIC_001</t>
   </si>
   <si>
-    <t>LT_AC_AC-KONDIC_002</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_003</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_004</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_005</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_007</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_008</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_009</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_010</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_101</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_102</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_102_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_102_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_102_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103_4</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_103_5</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_104</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_104_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_104_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_105</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_106</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_106_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_106_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_106_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_107</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_108</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_110_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_110_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_201</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_4</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_5</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_202_6</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_4</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_5</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_6</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_203_7</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_204</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_205</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_206</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_207</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_208</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_209</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_210</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_3_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_3_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_51_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_52_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_52_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_52_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_53_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_54_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_54_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_610_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_615_1</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_615_2</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_615_3</t>
-  </si>
-  <si>
-    <t>LT_AC_AC-KONDIC_615_4</t>
-  </si>
-  <si>
-    <t>LT_ActixOne</t>
-  </si>
-  <si>
-    <t>LT_AFG_AFG01LT</t>
-  </si>
-  <si>
-    <t>LT_AFG_AFG02LT</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-cs-mui1</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-cs-mui2</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ims-kn-tai1</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ims-kn-tai2</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ims-vl-mui1</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ims-vl-mui2</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-000a</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-000b</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-000c</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-038</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-045</t>
-  </si>
-  <si>
-    <t>LT_AS_agr-ran-047</t>
-  </si>
-  <si>
     <t>One Workflow UAT</t>
   </si>
   <si>
@@ -1435,24 +106,6 @@
     <t>One Workflow Automation Development</t>
   </si>
   <si>
-    <t>test-in1a</t>
-  </si>
-  <si>
-    <t>Test Directory</t>
-  </si>
-  <si>
-    <t>Test New Production</t>
-  </si>
-  <si>
-    <t>TEST TEAM CENTER</t>
-  </si>
-  <si>
-    <t>TESTAS</t>
-  </si>
-  <si>
-    <t>DK AWS DevToolsMaster</t>
-  </si>
-  <si>
     <t>DK DNS External- STOP</t>
   </si>
   <si>
@@ -1471,61 +124,1387 @@
     <t>DK_AAA_AAA02DK</t>
   </si>
   <si>
-    <t>EE_eNodeB_200595</t>
-  </si>
-  <si>
-    <t>Selleri ACC</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP03</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP04</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP05</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP06</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP07</t>
-  </si>
-  <si>
-    <t>NO_NAT_GiBigIP08</t>
-  </si>
-  <si>
-    <t>SEALIME01S-FLX</t>
-  </si>
-  <si>
-    <t>semal02s-bu-027.adn.telia.se-&gt;dns-log4-sn95</t>
-  </si>
-  <si>
-    <t>READPRD</t>
-  </si>
-  <si>
-    <t>finbocluster</t>
-  </si>
-  <si>
-    <t>SE_AP_are-holiday-club-ap64</t>
-  </si>
-  <si>
-    <t>SE_AP_are-holiday-club-ap65</t>
-  </si>
-  <si>
-    <t>SE_AP_are-holiday-club-ap62</t>
-  </si>
-  <si>
-    <t>NO_AHUB_hbhros1102</t>
-  </si>
-  <si>
-    <t>SE_AP_are-holiday-club-ap69</t>
-  </si>
-  <si>
-    <t>SE_AAA_CoreTest05</t>
-  </si>
-  <si>
-    <t>EE_CNDB_kjjtiams011</t>
+    <t>SE_LTECell_103392011</t>
+  </si>
+  <si>
+    <t>SE_LTECell_100895010</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Valpe4H</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Hauci1L</t>
+  </si>
+  <si>
+    <t>NO_LTECell_TLM150_L18-1</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C16B011</t>
+  </si>
+  <si>
+    <t>EE_LTECell_AABLAK2</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_100021</t>
+  </si>
+  <si>
+    <t>DK_UMTSCell_B0001S11</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_3G Labra2A</t>
+  </si>
+  <si>
+    <t>EE_UMTSCell_AABLAW2</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_65122</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_0010</t>
+  </si>
+  <si>
+    <t>SE_SGSN_FREMME2</t>
+  </si>
+  <si>
+    <t>DK_SGSN_AMBMME1</t>
+  </si>
+  <si>
+    <t>FI_SGSN_HKIMME02</t>
+  </si>
+  <si>
+    <t>EE_SGSN_KOORTMME1</t>
+  </si>
+  <si>
+    <t>NO_SGSN_OSL800MME1</t>
+  </si>
+  <si>
+    <t>LT_SGSN_VLMMME02</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_FRE1MS</t>
+  </si>
+  <si>
+    <t>DK_MSCSERVER_AMB3MSC</t>
+  </si>
+  <si>
+    <t>FI_MSS_SMS01HKI</t>
+  </si>
+  <si>
+    <t>EE_MSC_EE_MSC</t>
+  </si>
+  <si>
+    <t>NO_MSS_OSLMSS01</t>
+  </si>
+  <si>
+    <t>LT_MSC_LT_MSC</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Maunu1</t>
+  </si>
+  <si>
+    <t>Ratina</t>
+  </si>
+  <si>
+    <t>tiksu PROD</t>
+  </si>
+  <si>
+    <t>aa325</t>
+  </si>
+  <si>
+    <t>aa323iptvapp03</t>
+  </si>
+  <si>
+    <t>fre-rep-s3</t>
+  </si>
+  <si>
+    <t>aa243as01</t>
+  </si>
+  <si>
+    <t>aa243as02</t>
+  </si>
+  <si>
+    <t>aa243as03</t>
+  </si>
+  <si>
+    <t>aa245as01</t>
+  </si>
+  <si>
+    <t>aa687bias03</t>
+  </si>
+  <si>
+    <t>aa687bias04</t>
+  </si>
+  <si>
+    <t>aa687biast03</t>
+  </si>
+  <si>
+    <t>aa687bias06</t>
+  </si>
+  <si>
+    <t>aa687bias07</t>
+  </si>
+  <si>
+    <t>gai-dhcp11-sn91</t>
+  </si>
+  <si>
+    <t>mordo</t>
+  </si>
+  <si>
+    <t>ratbat</t>
+  </si>
+  <si>
+    <t>rodimus</t>
+  </si>
+  <si>
+    <t>ingest8</t>
+  </si>
+  <si>
+    <t>DAISY-1853</t>
+  </si>
+  <si>
+    <t>lamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin       </t>
+  </si>
+  <si>
+    <t>fd100</t>
+  </si>
+  <si>
+    <t>mta2</t>
+  </si>
+  <si>
+    <t>allis</t>
+  </si>
+  <si>
+    <t>alonso</t>
+  </si>
+  <si>
+    <t>alpo</t>
+  </si>
+  <si>
+    <t>alpo2</t>
+  </si>
+  <si>
+    <t>aa245as02</t>
+  </si>
+  <si>
+    <t>SE_RNC_AK1RU62</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Aakku1</t>
+  </si>
+  <si>
+    <t>FI_BSC_HKPB100</t>
+  </si>
+  <si>
+    <t>DK_eNodeB_S1897LT</t>
+  </si>
+  <si>
+    <t>DK_eNodeB_S1897LTE</t>
+  </si>
+  <si>
+    <t>DK_RLINK_S1897_A_M001</t>
+  </si>
+  <si>
+    <t>DK_RLINK_S1897_A_M004</t>
+  </si>
+  <si>
+    <t>DK_NodeB_S1897S</t>
+  </si>
+  <si>
+    <t>DK_NodeB_S1897U</t>
+  </si>
+  <si>
+    <t>One Workflow System Integration</t>
+  </si>
+  <si>
+    <t>DK_EPG_AMBEPG1</t>
+  </si>
+  <si>
+    <t>SE_SGSN_VRRMME1</t>
+  </si>
+  <si>
+    <t>aa187bcpp01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ef002appp1 </t>
+  </si>
+  <si>
+    <t>ef002appp2</t>
+  </si>
+  <si>
+    <t>ef002appp3</t>
+  </si>
+  <si>
+    <t>cc100cgas001</t>
+  </si>
+  <si>
+    <t>csn-fnt-154681</t>
+  </si>
+  <si>
+    <t>aa789win01t</t>
+  </si>
+  <si>
+    <t>SPANGISAT</t>
+  </si>
+  <si>
+    <t>SE_SGSN_HYMME2</t>
+  </si>
+  <si>
+    <t>SE_SGSN_LDHMME1</t>
+  </si>
+  <si>
+    <t>EE_EPG_EE-CSGN01EPG</t>
+  </si>
+  <si>
+    <t>FI_EPG_FI-CSGN01EPG</t>
+  </si>
+  <si>
+    <t>LT_EPG_LT-CSGN01EPG</t>
+  </si>
+  <si>
+    <t>NO_EPG_AKH902EPG3</t>
+  </si>
+  <si>
+    <t>SE_EPG_FREEPG1</t>
+  </si>
+  <si>
+    <t>sehan9087verk1</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Kuumo1HT</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Snuggtaskeberg</t>
+  </si>
+  <si>
+    <t>SE_Site_KS M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE_site_VB M13 </t>
+  </si>
+  <si>
+    <t>SE_Site_G/BN M3</t>
+  </si>
+  <si>
+    <t>cc001cgas001</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>apoteket-fnt-137263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0819ALB616 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ef002appp2 </t>
+  </si>
+  <si>
+    <t>cc100cgas002</t>
+  </si>
+  <si>
+    <t>FI_MGW_SMG03TRE</t>
+  </si>
+  <si>
+    <t>NO_NAT_GiBigIP0%</t>
+  </si>
+  <si>
+    <t>SE_STN_100042_S_S_M3</t>
+  </si>
+  <si>
+    <t>One Workflow</t>
+  </si>
+  <si>
+    <t>NO_EPG_OSL900EPG2</t>
+  </si>
+  <si>
+    <t>EE_EPG_KOORTEPG1</t>
+  </si>
+  <si>
+    <t>NO_SGSN_AKH902MME2</t>
+  </si>
+  <si>
+    <t>NO_SGSN_NO-CSGN01MME</t>
+  </si>
+  <si>
+    <t>LT_SGSN_LT-CSGN01MME</t>
+  </si>
+  <si>
+    <t>LT_SGSN_LT-CSGN02MME</t>
+  </si>
+  <si>
+    <t>FI_SGSN_FI-CSGN01MME</t>
+  </si>
+  <si>
+    <t>FI_SGSN_FI-CSGN02MME</t>
+  </si>
+  <si>
+    <t>EE_SGSN_EE-CSGN01MME</t>
+  </si>
+  <si>
+    <t>EE_SGSN_EE-CSGN02MME</t>
+  </si>
+  <si>
+    <t>DK_SGSN_DK-CSGN01MME</t>
+  </si>
+  <si>
+    <t>SE_EPG_HYEPG1</t>
+  </si>
+  <si>
+    <t>SE_EPG_LDHEPG1</t>
+  </si>
+  <si>
+    <t>SE_EPG_VRREPG1</t>
+  </si>
+  <si>
+    <t>NO_XWDM_NO- MAN0007|NO_XWDM_TRA_Empty_NO- MAN0007</t>
+  </si>
+  <si>
+    <t>SE_LTECell_100000012</t>
+  </si>
+  <si>
+    <t>SE_CPE_FRECPE5</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_8888882</t>
+  </si>
+  <si>
+    <t>NO_LTECell_OSL894_L7-27</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Klingsta M1</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Yttervik</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Ålidhem M11</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_140010</t>
+  </si>
+  <si>
+    <t>TIKSU</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>NO_LTECell_AAD001_L18-1</t>
+  </si>
+  <si>
+    <t>SE_Site_A M11</t>
+  </si>
+  <si>
+    <t>DK_Site_S0001</t>
+  </si>
+  <si>
+    <t>FI_Site_maarianvaara_keskus</t>
+  </si>
+  <si>
+    <t>EE_Site_KARDL</t>
+  </si>
+  <si>
+    <t>LT_Site_888</t>
+  </si>
+  <si>
+    <t>NO_Site_VSF087</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Billa</t>
+  </si>
+  <si>
+    <t>EE_eNodeB_200821</t>
+  </si>
+  <si>
+    <t>FI_eNodeB_Alakoylio-L08-18-F</t>
+  </si>
+  <si>
+    <t>NO_eNodeB_BSK242_LTE_01</t>
+  </si>
+  <si>
+    <t>DK_eNodeB_S1530T</t>
+  </si>
+  <si>
+    <t>LT_eNodeB_Vikstata-Ked-L-S-40A</t>
+  </si>
+  <si>
+    <t>SE_eNodeB_Karlsvik M2</t>
+  </si>
+  <si>
+    <t>EE_GSMCell_TALLI12</t>
+  </si>
+  <si>
+    <t>FI_eNodeB_Biolan-L08-F</t>
+  </si>
+  <si>
+    <t>NO_eNodeB_NTR021_LTE_01</t>
+  </si>
+  <si>
+    <t>DK_eNodeB_S1753TE</t>
+  </si>
+  <si>
+    <t>LT_eNodeB_Kontora-Sia-L-U-326</t>
+  </si>
+  <si>
+    <t>LT_NodeB_61730</t>
+  </si>
+  <si>
+    <t>FI_NodeB_1015</t>
+  </si>
+  <si>
+    <t>SE_RNC_SE_DEF_RNC_TELIA</t>
+  </si>
+  <si>
+    <t>EE_RNC_EE_DEF_RNC</t>
+  </si>
+  <si>
+    <t>FI_RNC_FI_DEF_RNC</t>
+  </si>
+  <si>
+    <t>NO_RNC_NO_DEF_RNC</t>
+  </si>
+  <si>
+    <t>DK_RNC_DK_DEF_RNC</t>
+  </si>
+  <si>
+    <t>LT_RNC_LT_DEF_RNC</t>
+  </si>
+  <si>
+    <t>SE_RNC_DEF_RNC</t>
+  </si>
+  <si>
+    <t>NO_NodeB_RNC101_1001</t>
+  </si>
+  <si>
+    <t>DK_RNC_ABRNC01</t>
+  </si>
+  <si>
+    <t>LT_NodeB_RNC101_1183</t>
+  </si>
+  <si>
+    <t>SE_RNC_AK1RU82</t>
+  </si>
+  <si>
+    <t>EE_RNC_KRT2R</t>
+  </si>
+  <si>
+    <t>FI_RNC_HDCRN021</t>
+  </si>
+  <si>
+    <t>NO_RNC_RNC101</t>
+  </si>
+  <si>
+    <t>DK_RNC_ABRNC02</t>
+  </si>
+  <si>
+    <t>LT_RNC_ORH01</t>
+  </si>
+  <si>
+    <t>SE_NodeB_120184</t>
+  </si>
+  <si>
+    <t>FI_NodeB_Alakoylio_FE</t>
+  </si>
+  <si>
+    <t>DK_NodeB_S1530U</t>
+  </si>
+  <si>
+    <t>EE_NodeB_TALLINNTALLIU</t>
+  </si>
+  <si>
+    <t>LT_NodeB_ORH03_1034</t>
+  </si>
+  <si>
+    <t>NO_NodeB_RNC101_1415</t>
+  </si>
+  <si>
+    <t>SE_STN_100738_FAR_S_M1</t>
+  </si>
+  <si>
+    <t>FI_NodeB_Alppikylankatu_FE</t>
+  </si>
+  <si>
+    <t>DK_NAT_AMBNAT1</t>
+  </si>
+  <si>
+    <t>EE_NodeB_HIIUAADMAW</t>
+  </si>
+  <si>
+    <t>LT_eNodeB_SvMykolo-Vil-L-U-12A</t>
+  </si>
+  <si>
+    <t>NO_EXTMSC_MSC288</t>
+  </si>
+  <si>
+    <t>SE_STN_104231_KSR_M2</t>
+  </si>
+  <si>
+    <t>FI_MTAS_MTAS01FI</t>
+  </si>
+  <si>
+    <t>DK_NodeB_B0074S</t>
+  </si>
+  <si>
+    <t>LT_eNodeB_Kalnuvenai-L-R-20B</t>
+  </si>
+  <si>
+    <t>NO_STN_SIU_HDM169</t>
+  </si>
+  <si>
+    <t>SE_RNC_TESTRNC</t>
+  </si>
+  <si>
+    <t>DK_RNC_KOG2RNC</t>
+  </si>
+  <si>
+    <t>NO_NodeB_RNC222_150470</t>
+  </si>
+  <si>
+    <t>LT_NodeB_RNC912_9301</t>
+  </si>
+  <si>
+    <t>NO_NodeB_RNC302_150640</t>
+  </si>
+  <si>
+    <t>NO_NodeB_RNC222_150511</t>
+  </si>
+  <si>
+    <t>SE_RNC_MBRU85</t>
+  </si>
+  <si>
+    <t>SE_RNC_FRE10RU</t>
+  </si>
+  <si>
+    <t>FI_RNC_HKPRN003</t>
+  </si>
+  <si>
+    <t>DK_RNC_ALRNC99</t>
+  </si>
+  <si>
+    <t>NO_RNC_RNC201</t>
+  </si>
+  <si>
+    <t>NO_RNC_RNC211</t>
+  </si>
+  <si>
+    <t>EE_RNC_PET1R</t>
+  </si>
+  <si>
+    <t>td722adptr2</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Stenh1</t>
+  </si>
+  <si>
+    <t>td722ars35</t>
+  </si>
+  <si>
+    <t>TrueSight</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Aacti3H</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Aaljk1</t>
+  </si>
+  <si>
+    <t>DK_BSC_ABBSC15</t>
+  </si>
+  <si>
+    <t>DK_RLINK_B0001_A_AMM01</t>
+  </si>
+  <si>
+    <t>aa316</t>
+  </si>
+  <si>
+    <t>sehan5555ts02</t>
+  </si>
+  <si>
+    <t>SE_AP_tylosand-first-camp-ap10b2</t>
+  </si>
+  <si>
+    <t>SE_AP_tylosand-first-camp-ap11</t>
+  </si>
+  <si>
+    <t>SE_AP_tylosand-first-camp-ap12b2</t>
+  </si>
+  <si>
+    <t>SE_LTECell_100000010</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_105692011</t>
+  </si>
+  <si>
+    <t>FI_LTECell_99999</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_99999</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Aacti1</t>
+  </si>
+  <si>
+    <t>EE_LTECell_99999</t>
+  </si>
+  <si>
+    <t>EE_LTECell_AABLAK4</t>
+  </si>
+  <si>
+    <t>EE_GSMCell_99999</t>
+  </si>
+  <si>
+    <t>EE_GSMCell_AABLA11</t>
+  </si>
+  <si>
+    <t>DK AWS DWH</t>
+  </si>
+  <si>
+    <t>DK AWS Service Container</t>
+  </si>
+  <si>
+    <t>DK cfengine</t>
+  </si>
+  <si>
+    <t>DK DHCP EXTERNAL</t>
+  </si>
+  <si>
+    <t>DK DNS External - Authoritative</t>
+  </si>
+  <si>
+    <t>DK DNS external - Resolvers</t>
+  </si>
+  <si>
+    <t>DK DNS Internal</t>
+  </si>
+  <si>
+    <t>DK DNS LB</t>
+  </si>
+  <si>
+    <t>DK DNS Mobile Gi</t>
+  </si>
+  <si>
+    <t>DK DNS Mobile Gn</t>
+  </si>
+  <si>
+    <t>DK DNS SIP</t>
+  </si>
+  <si>
+    <t>DK GDPR ConsentDB</t>
+  </si>
+  <si>
+    <t>DK GDPR Manager</t>
+  </si>
+  <si>
+    <t>DK GDPR PurposeDB</t>
+  </si>
+  <si>
+    <t>DK Intra SMTP</t>
+  </si>
+  <si>
+    <t>DK MGNVPN</t>
+  </si>
+  <si>
+    <t>DK NTP EXTERNAL</t>
+  </si>
+  <si>
+    <t>DK RADIUS EXTERNAL</t>
+  </si>
+  <si>
+    <t>DK TTN BSC RNC</t>
+  </si>
+  <si>
+    <t>DK VIP Insight</t>
+  </si>
+  <si>
+    <t>DK VoIP LAB</t>
+  </si>
+  <si>
+    <t>DK_99999_ID_MISSEDCI</t>
+  </si>
+  <si>
+    <t>DK_AC_AC-AMB_FANCOIL</t>
+  </si>
+  <si>
+    <t>DK_AC_AC-AMB_KOMPRESSOR</t>
+  </si>
+  <si>
+    <t>DK_ACC_ACCC-AMB_H140XXX</t>
+  </si>
+  <si>
+    <t>DK_AFG_AFG01DK</t>
+  </si>
+  <si>
+    <t>DK_AFG_AFG02DK</t>
+  </si>
+  <si>
+    <t>DK_ambepg1_ID_MISSEDCI</t>
+  </si>
+  <si>
+    <t>DK_AMBMME1_ID_MISSEDCI</t>
+  </si>
+  <si>
+    <t>DK_Atoll</t>
+  </si>
+  <si>
+    <t>DK_BGW_amb-grx</t>
+  </si>
+  <si>
+    <t>DK_BGW_osd-grx</t>
+  </si>
+  <si>
+    <t>DK_BILLING_AXAPTA-AFTALESTYR</t>
+  </si>
+  <si>
+    <t>DK_BILLING_AXAPTA-CONTRACTS</t>
+  </si>
+  <si>
+    <t>SE_BSC_AB14B</t>
+  </si>
+  <si>
+    <t>SE_BSC_AB15B</t>
+  </si>
+  <si>
+    <t>SE_RNC_AK6RU102</t>
+  </si>
+  <si>
+    <t>SE_RNC_VSTRU24</t>
+  </si>
+  <si>
+    <t>SE_RNC_VSTRU83</t>
+  </si>
+  <si>
+    <t>SE_AFG_AFG01FI</t>
+  </si>
+  <si>
+    <t>SE_ALARMMAP_ALARMMAP</t>
+  </si>
+  <si>
+    <t>SE_ALE_hogalid-ale1</t>
+  </si>
+  <si>
+    <t>EE_Atoll</t>
+  </si>
+  <si>
+    <t>EE_BILLING_AIR1</t>
+  </si>
+  <si>
+    <t>SE_AP_tylosand-first-camp-ap13</t>
+  </si>
+  <si>
+    <t>SE_NAS_tylosand-first-camp-nas</t>
+  </si>
+  <si>
+    <t>SE_SW_tylosand-first-camp-sw1</t>
+  </si>
+  <si>
+    <t>DK_BSC_ALG3B</t>
+  </si>
+  <si>
+    <t>DK_BSC_SOBSC12</t>
+  </si>
+  <si>
+    <t>DK_eNodeB_118500</t>
+  </si>
+  <si>
+    <t>EE_BILLING_OLMK2</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_620153</t>
+  </si>
+  <si>
+    <t>SE_MSC_SE_POOLMSC</t>
+  </si>
+  <si>
+    <t>SE_MSC_DEF_MSC</t>
+  </si>
+  <si>
+    <t>SE_MSC_LAB2M</t>
+  </si>
+  <si>
+    <t>SE_MSC_MSCPOOL</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_100022</t>
+  </si>
+  <si>
+    <t>SE_MSC_SE_T2_POOLMS</t>
+  </si>
+  <si>
+    <t>SE_MSC_TEST2M</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_FRE2MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_GBR1MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_GRA1MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_HY1MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_HY2MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_LAB1MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_LAB2MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_LAB3MS</t>
+  </si>
+  <si>
+    <t>SE_MSCSERVER_LAB4MS</t>
+  </si>
+  <si>
+    <t>TIKSU ACC</t>
+  </si>
+  <si>
+    <t>TIKSU DEV</t>
+  </si>
+  <si>
+    <t>Tiksu MyIT PROD</t>
+  </si>
+  <si>
+    <t>TIKSU POC</t>
+  </si>
+  <si>
+    <t>TIKSU TEST</t>
+  </si>
+  <si>
+    <t>TIKSU TEST SYV</t>
+  </si>
+  <si>
+    <t>tiksuadmbe.ddc.teliasonera.net</t>
+  </si>
+  <si>
+    <t>tiksuadmfe.ddc.teliasonera.net</t>
+  </si>
+  <si>
+    <t>tiksu-ar-pre.ddc.teliasonera.net</t>
+  </si>
+  <si>
+    <t>Snow EE</t>
+  </si>
+  <si>
+    <t>Snow License Manager</t>
+  </si>
+  <si>
+    <t>Snowflake Analytics platform</t>
+  </si>
+  <si>
+    <t>snowwhite</t>
+  </si>
+  <si>
+    <t>LT_MGW_OMG03</t>
+  </si>
+  <si>
+    <t>EE_MSS_KRT4MS</t>
+  </si>
+  <si>
+    <t>FI_EPG_HKIEPG1</t>
+  </si>
+  <si>
+    <t>DK_MSCSERVER_OSD3MSC</t>
+  </si>
+  <si>
+    <t>NO_MSS_OSLMSS02</t>
+  </si>
+  <si>
+    <t>FI_MGW_HKI1MRS</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_448430</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_448431</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_703532</t>
+  </si>
+  <si>
+    <t>SE_LTECell_105143012</t>
+  </si>
+  <si>
+    <t>SE_LTECell_105143022</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_703531</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_703535</t>
+  </si>
+  <si>
+    <t>SE_Site_BFO M1</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_45362</t>
+  </si>
+  <si>
+    <t>SE_LTECell_106820012</t>
+  </si>
+  <si>
+    <t>SE_UMTSCell_704974</t>
+  </si>
+  <si>
+    <t>SE_GSMCell_45364</t>
+  </si>
+  <si>
+    <t>SE_LTECell_106820022</t>
+  </si>
+  <si>
+    <t>EE_UMTSCell_AABLAW4</t>
+  </si>
+  <si>
+    <t>EE_UMTSCell_TALLIU2</t>
+  </si>
+  <si>
+    <t>EE_UMTSCell_TALLIU3</t>
+  </si>
+  <si>
+    <t>EE_UMTSCell_TALLIU5</t>
+  </si>
+  <si>
+    <t>EE_LTECell_TALLIK3</t>
+  </si>
+  <si>
+    <t>EE_GSMCell_TALLI13</t>
+  </si>
+  <si>
+    <t>EE_GSMCell_TALLI15</t>
+  </si>
+  <si>
+    <t>EE_LTECell_TALLIK2</t>
+  </si>
+  <si>
+    <t>FI_Site_ammattiopisto_jkl</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Ksamo1A</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Ksamo1C</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Ksamo1H</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Ksamo4H</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Ksamo1B</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Alako1</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Alako1E</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Alako2H</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Alako3</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Alako2E</t>
+  </si>
+  <si>
+    <t>FI_UMTSCell_Alako3E</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Alako1H</t>
+  </si>
+  <si>
+    <t>FI_LTECell_Alako3H</t>
+  </si>
+  <si>
+    <t>FI_GSMCell_Alako2</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_BSK242_U21-11</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_BSK242_U21-12</t>
+  </si>
+  <si>
+    <t>NO_LTECell_BSK242_L26-1</t>
+  </si>
+  <si>
+    <t>NO_LTECell_BSK242_L26-2</t>
+  </si>
+  <si>
+    <t>NO_LTECell_BSK242_L26-3</t>
+  </si>
+  <si>
+    <t>NO_GSMCell_BSK242_G9-1</t>
+  </si>
+  <si>
+    <t>NO_GSMCell_BSK242_G9-2</t>
+  </si>
+  <si>
+    <t>NO_GSMCell_BSK242_G9-3</t>
+  </si>
+  <si>
+    <t>NO_Site_BSK242</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_BSK242_U21-13</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_OSL499_U21-13</t>
+  </si>
+  <si>
+    <t>NO_LTECell_OSL499_L26-1</t>
+  </si>
+  <si>
+    <t>NO_LTECell_OSL499_L26-2</t>
+  </si>
+  <si>
+    <t>NO_LTECell_OSL499_L26-3</t>
+  </si>
+  <si>
+    <t>NO_GSMCell_OSL499_G9-1</t>
+  </si>
+  <si>
+    <t>NO_Site_OSL499</t>
+  </si>
+  <si>
+    <t>NO_UMTSCell_OSL499_U21-11</t>
+  </si>
+  <si>
+    <t>LT_Site_67E</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_A67E</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_B67E</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C67E012</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C67E032</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_67EB</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_67EC</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_C67E</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C67E022</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_67EA</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_B40A</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C40A022</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C40A032</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_40AB</t>
+  </si>
+  <si>
+    <t>LT_Site_40A</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_A40A</t>
+  </si>
+  <si>
+    <t>LT_UMTSCell_C40A</t>
+  </si>
+  <si>
+    <t>LT_LTECell_2C40A012</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_40AA</t>
+  </si>
+  <si>
+    <t>LT_GSMCell_40AC</t>
+  </si>
+  <si>
+    <t>EE_LTECell_TIIMAL1</t>
+  </si>
+  <si>
+    <t>EE_LTECell_TIIMAL2</t>
+  </si>
+  <si>
+    <t>FI_Site_kehron_puhelinasema</t>
+  </si>
+  <si>
+    <t>Fi_Site_Kehro</t>
+  </si>
+  <si>
+    <t>ABBSC06</t>
+  </si>
+  <si>
+    <t>ABBSC15</t>
+  </si>
+  <si>
+    <t>AMB8BSC</t>
+  </si>
+  <si>
+    <t>ALG3BSC</t>
+  </si>
+  <si>
+    <t>AMB9BSC</t>
+  </si>
+  <si>
+    <t>B1571G</t>
+  </si>
+  <si>
+    <t>F0725G</t>
+  </si>
+  <si>
+    <t>F2864G</t>
+  </si>
+  <si>
+    <t>F2777G</t>
+  </si>
+  <si>
+    <t>J0605G</t>
+  </si>
+  <si>
+    <t>J0594G</t>
+  </si>
+  <si>
+    <t>J3199G</t>
+  </si>
+  <si>
+    <t>S1640G</t>
+  </si>
+  <si>
+    <t>S1802G</t>
+  </si>
+  <si>
+    <t>S6034D</t>
+  </si>
+  <si>
+    <t>S4649G</t>
+  </si>
+  <si>
+    <t>ABRNC01</t>
+  </si>
+  <si>
+    <t>ALG1RNC</t>
+  </si>
+  <si>
+    <t>AMB2RNC</t>
+  </si>
+  <si>
+    <t>AMB4RNC</t>
+  </si>
+  <si>
+    <t>B1848S</t>
+  </si>
+  <si>
+    <t>F0913S</t>
+  </si>
+  <si>
+    <t>F2025S</t>
+  </si>
+  <si>
+    <t>F5046S</t>
+  </si>
+  <si>
+    <t>J1840S</t>
+  </si>
+  <si>
+    <t>J1791S</t>
+  </si>
+  <si>
+    <t>S3272S</t>
+  </si>
+  <si>
+    <t>S3311S</t>
+  </si>
+  <si>
+    <t>S3423S</t>
+  </si>
+  <si>
+    <t>S4599U</t>
+  </si>
+  <si>
+    <t>B1849E</t>
+  </si>
+  <si>
+    <t>F0985A</t>
+  </si>
+  <si>
+    <t>F2018TE</t>
+  </si>
+  <si>
+    <t>J2156TE</t>
+  </si>
+  <si>
+    <t>J2098TE</t>
+  </si>
+  <si>
+    <t>J1588AE</t>
+  </si>
+  <si>
+    <t>J0883AT</t>
+  </si>
+  <si>
+    <t>J0888TE</t>
+  </si>
+  <si>
+    <t>J2313ATE</t>
+  </si>
+  <si>
+    <t>S3036LATE</t>
+  </si>
+  <si>
+    <t>S3665TE</t>
+  </si>
+  <si>
+    <t>S3793ATEN</t>
+  </si>
+  <si>
+    <t>S4456L</t>
+  </si>
+  <si>
+    <t>aa817</t>
+  </si>
+  <si>
+    <t>cc100cgas198</t>
+  </si>
+  <si>
+    <t>cc100cgas251</t>
+  </si>
+  <si>
+    <t>cc100cgdb089</t>
+  </si>
+  <si>
+    <t>ALPPILA</t>
+  </si>
+  <si>
+    <t>al-prod-sasdb3</t>
+  </si>
+  <si>
+    <t>amand</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>amb-qps8</t>
+  </si>
+  <si>
+    <t>sehan9317sps01</t>
+  </si>
+  <si>
+    <t>sehan9317sps02</t>
+  </si>
+  <si>
+    <t>sehan9321asipl1</t>
+  </si>
+  <si>
+    <t>sehan9321asipl2</t>
+  </si>
+  <si>
+    <t>sehan9321asipl3</t>
+  </si>
+  <si>
+    <t>sehan9321asipl4</t>
+  </si>
+  <si>
+    <t>sehan9327assk30</t>
+  </si>
+  <si>
+    <t>sehan9327assk31</t>
+  </si>
+  <si>
+    <t>sehan9327assk32</t>
+  </si>
+  <si>
+    <t>sehan9327assk34</t>
+  </si>
+  <si>
+    <t>A3301501</t>
+  </si>
+  <si>
+    <t>A3301503</t>
+  </si>
+  <si>
+    <t>A3301511</t>
+  </si>
+  <si>
+    <t>A3301513</t>
+  </si>
+  <si>
+    <t>A3500501</t>
+  </si>
+  <si>
+    <t>A3500505</t>
+  </si>
+  <si>
+    <t>A3500511</t>
+  </si>
+  <si>
+    <t>A3500513</t>
+  </si>
+  <si>
+    <t>A3600505</t>
+  </si>
+  <si>
+    <t>A3600507</t>
+  </si>
+  <si>
+    <t>A3600509</t>
+  </si>
+  <si>
+    <t>A3600511</t>
+  </si>
+  <si>
+    <t>A3601503</t>
+  </si>
+  <si>
+    <t>A4000505</t>
+  </si>
+  <si>
+    <t>A4000507</t>
+  </si>
+  <si>
+    <t>A4000509</t>
+  </si>
+  <si>
+    <t>A4000531</t>
+  </si>
+  <si>
+    <t>A4000533</t>
+  </si>
+  <si>
+    <t>A4000537</t>
+  </si>
+  <si>
+    <t>A4000539</t>
+  </si>
+  <si>
+    <t>A4001503</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1903,2502 +1882,2502 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>495</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>499</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>491</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>484</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>492</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>485</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>486</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>493</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>487</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>488</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>482</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>496</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>489</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>260</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>265</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>266</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>270</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>274</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>275</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>480</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>497</v>
+        <v>385</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>445</v>
+        <v>77</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
